--- a/regionseng/2/trade/trade.xlsx
+++ b/regionseng/2/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="6480" windowWidth="21120" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,13 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +151,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +195,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,12 +234,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -554,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -566,7 +553,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
@@ -585,8 +572,10 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -633,8 +622,14 @@
       <c r="P3" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -680,11 +675,17 @@
       <c r="O4" s="8">
         <v>895.7</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="8">
         <v>803.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="8">
+        <v>976.9</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1217.4000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -730,11 +731,17 @@
       <c r="O5" s="8">
         <v>130.1</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="8">
         <v>150.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="8">
+        <v>165</v>
+      </c>
+      <c r="R5" s="8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -780,11 +787,17 @@
       <c r="O6" s="9">
         <v>7240</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="9">
         <v>6319</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="9">
+        <v>6548</v>
+      </c>
+      <c r="R6" s="9">
+        <v>6837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -830,11 +843,17 @@
       <c r="O7" s="9">
         <v>3777</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="9">
         <v>3259</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="9">
+        <v>3352</v>
+      </c>
+      <c r="R7" s="9">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -880,11 +899,17 @@
       <c r="O8" s="8">
         <v>459</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="8">
         <v>514.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="8">
+        <v>499.4</v>
+      </c>
+      <c r="R8" s="8">
+        <v>852.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -930,11 +955,17 @@
       <c r="O9" s="8">
         <v>32.5</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="8">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="8">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="R9" s="8">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -980,11 +1011,17 @@
       <c r="O10" s="8">
         <v>21</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="8">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="R10" s="8">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1030,11 +1067,17 @@
       <c r="O11" s="8">
         <v>97.6</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="8">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="8">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="R11" s="8">
+        <v>177.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1080,11 +1123,17 @@
       <c r="O12" s="8">
         <v>3.4</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="8">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R12" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1130,11 +1179,17 @@
       <c r="O13" s="8">
         <v>811.1</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="8">
         <v>730</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="8">
+        <v>858.1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1058.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1180,11 +1235,17 @@
       <c r="O14" s="8">
         <v>780.2</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="8">
         <v>696.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="12.75">
+      <c r="Q14" s="8">
+        <v>825.8</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1007.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="11" customFormat="1" ht="12.75">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1274,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/2/trade/trade.xlsx
+++ b/regionseng/2/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22215" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -553,7 +553,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
@@ -574,8 +574,9 @@
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1">
+      <c r="S1" s="16"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -628,8 +629,11 @@
       <c r="R3" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -684,8 +688,11 @@
       <c r="R4" s="8">
         <v>1217.4000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="8">
+        <v>1132.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -740,8 +747,11 @@
       <c r="R5" s="8">
         <v>231</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="8">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="R6" s="9">
         <v>6837</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="9">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -852,8 +865,11 @@
       <c r="R7" s="9">
         <v>3350</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="9">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -908,8 +924,11 @@
       <c r="R8" s="8">
         <v>852.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="8">
+        <v>733.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -964,8 +983,11 @@
       <c r="R9" s="8">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1020,8 +1042,11 @@
       <c r="R10" s="8">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="8">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1076,8 +1101,11 @@
       <c r="R11" s="8">
         <v>177.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1132,8 +1160,11 @@
       <c r="R12" s="8">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1188,8 +1219,11 @@
       <c r="R13" s="8">
         <v>1058.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="8">
+        <v>999.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1244,8 +1278,11 @@
       <c r="R14" s="8">
         <v>1007.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="11" customFormat="1" ht="12.75">
+      <c r="S14" s="8">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="12.75">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1311,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
